--- a/example/mp_reports_01KP_26.05.2018-10.47.19.915_500_items/weakly_correled_500.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-10.47.19.915_500_items/weakly_correled_500.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -77,10 +77,13 @@
     <t>GA deviation</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
+    <t>FAIL</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
   </si>
 </sst>
 </file>
@@ -405,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +486,7 @@
         <v>4721</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>39120</v>
@@ -539,7 +542,7 @@
         <v>4410</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>39324</v>
@@ -595,7 +598,7 @@
         <v>3755</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>39218</v>
@@ -651,7 +654,7 @@
         <v>4396.5</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>39099</v>
@@ -707,7 +710,7 @@
         <v>4131.5</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>38915</v>
@@ -763,7 +766,7 @@
         <v>3845</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>39213.5</v>
@@ -819,7 +822,7 @@
         <v>4632</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>39179</v>
@@ -875,7 +878,7 @@
         <v>3634</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>39053</v>
@@ -931,7 +934,7 @@
         <v>4263</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>39214.5</v>
@@ -987,7 +990,7 @@
         <v>3767.5</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>39298.5</v>
@@ -1043,7 +1046,7 @@
         <v>3920.5</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>39131.5</v>
@@ -1099,7 +1102,7 @@
         <v>4436.5</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>39144.5</v>
@@ -1155,7 +1158,7 @@
         <v>3701</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>39021.5</v>
@@ -1211,7 +1214,7 @@
         <v>4268</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>39053</v>
@@ -1267,7 +1270,7 @@
         <v>3348.5</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>39046.5</v>
@@ -1323,7 +1326,7 @@
         <v>3999</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>39143.5</v>
@@ -1379,7 +1382,7 @@
         <v>4125.5</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>39153.5</v>
@@ -1435,7 +1438,7 @@
         <v>3635</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>39102.5</v>
@@ -1491,7 +1494,7 @@
         <v>4470.5</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>39183.5</v>
@@ -1547,7 +1550,7 @@
         <v>4302</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>39186.5</v>
@@ -1603,7 +1606,7 @@
         <v>4114.5</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>39103</v>
@@ -1659,7 +1662,7 @@
         <v>3672.5</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>39523</v>
@@ -1715,7 +1718,7 @@
         <v>4222.5</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>39378.5</v>
@@ -1771,7 +1774,7 @@
         <v>3952.5</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>39099</v>
@@ -1827,7 +1830,7 @@
         <v>4449</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>39083.5</v>
@@ -1883,7 +1886,7 @@
         <v>4166.5</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>39157.5</v>
@@ -1939,7 +1942,7 @@
         <v>4537</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>39183.5</v>
@@ -1995,7 +1998,7 @@
         <v>3783</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>39195.5</v>
@@ -2051,7 +2054,7 @@
         <v>4228</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>39178.5</v>
@@ -2107,7 +2110,7 @@
         <v>4262.5</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>39337</v>
@@ -2232,15 +2235,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="2">
+        <f>AVERAGE(Q3:Q32)</f>
+        <v>1.3527740379378853E-4</v>
+      </c>
+      <c r="B44" s="2">
         <f>MAX(Q3:Q32)</f>
         <v>2.5449070048565311E-4</v>
       </c>
